--- a/data/trans_camb/P13_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 2,08</t>
+          <t>-2,99; 2,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,89</t>
+          <t>-3,26; 2,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 2,81</t>
+          <t>-2,47; 2,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,78</t>
+          <t>-4,66; 1,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 2,36</t>
+          <t>-4,14; 2,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,47</t>
+          <t>-4,3; 1,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,91</t>
+          <t>-3,07; 1,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,41</t>
+          <t>-2,82; 1,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,31</t>
+          <t>-2,46; 1,39</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 73,43</t>
+          <t>-56,4; 72,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 66,34</t>
+          <t>-58,75; 78,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,31; 87,59</t>
+          <t>-42,78; 90,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,64; 64,94</t>
+          <t>-64,74; 62,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,35; 74,13</t>
+          <t>-59,29; 79,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 48,78</t>
+          <t>-59,55; 36,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 25,78</t>
+          <t>-53,1; 36,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 41,49</t>
+          <t>-49,35; 38,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,63; 37,2</t>
+          <t>-40,99; 38,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 5,31</t>
+          <t>0,33; 5,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,75</t>
+          <t>-0,65; 3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,04</t>
+          <t>-0,15; 4,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,9</t>
+          <t>0,25; 7,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,91</t>
+          <t>-2,52; 1,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 4,31</t>
+          <t>-0,63; 4,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,09</t>
+          <t>1,13; 5,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,19</t>
+          <t>-1,01; 2,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,62</t>
+          <t>0,11; 3,51</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1090,71</t>
+          <t>-9,65; 1017,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 795,59</t>
+          <t>-40,61; 793,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,6; 757,29</t>
+          <t>-22,7; 791,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 502,71</t>
+          <t>-3,47; 500,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 162,49</t>
+          <t>-72,22; 148,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,96; 324,01</t>
+          <t>-24,0; 319,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,43; 422,0</t>
+          <t>35,95; 412,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 210,29</t>
+          <t>-35,76; 191,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 350,87</t>
+          <t>1,35; 292,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,88</t>
+          <t>1,43; 6,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 4,55</t>
+          <t>0,44; 4,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 4,18</t>
+          <t>-1,48; 4,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,41</t>
+          <t>-3,74; 7,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 8,16</t>
+          <t>-4,86; 8,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 9,37</t>
+          <t>-2,3; 8,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,71</t>
+          <t>1,32; 5,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,31</t>
+          <t>-0,05; 4,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,62</t>
+          <t>-2,13; 4,65</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>46,82; 574,72</t>
+          <t>39,0; 488,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 416,43</t>
+          <t>8,15; 425,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 328,79</t>
+          <t>-49,01; 302,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 167,01</t>
+          <t>-37,06; 163,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 174,02</t>
+          <t>-47,3; 188,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 218,57</t>
+          <t>-27,59; 187,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,74; 261,03</t>
+          <t>28,13; 241,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 193,58</t>
+          <t>-5,6; 191,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 183,55</t>
+          <t>-43,56; 181,09</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,38</t>
+          <t>-0,09; 3,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 1,28</t>
+          <t>-1,82; 1,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,46</t>
+          <t>1,04; 4,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 5,46</t>
+          <t>0,09; 5,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 3,62</t>
+          <t>-1,07; 3,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,24</t>
+          <t>-3,42; 2,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,47</t>
+          <t>0,65; 3,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,78</t>
+          <t>-0,85; 1,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,1</t>
+          <t>-0,2; 3,15</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 113,1</t>
+          <t>-4,29; 122,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,8; 44,0</t>
+          <t>-42,33; 51,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,72; 152,56</t>
+          <t>20,29; 153,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,46; 145,76</t>
+          <t>-0,3; 138,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 98,09</t>
+          <t>-17,84; 94,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 55,99</t>
+          <t>-53,56; 57,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,52; 100,66</t>
+          <t>13,54; 105,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 50,0</t>
+          <t>-19,12; 47,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 86,0</t>
+          <t>-3,73; 89,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,81</t>
+          <t>-4,11; 1,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,63</t>
+          <t>-2,95; 2,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,94</t>
+          <t>-0,74; 5,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,26</t>
+          <t>5,32; 11,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 5,07</t>
+          <t>-0,21; 4,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,45</t>
+          <t>1,68; 7,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,67</t>
+          <t>2,36; 6,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,12</t>
+          <t>-0,52; 3,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,97</t>
+          <t>1,86; 6,21</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 61,29</t>
+          <t>-57,48; 52,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 86,6</t>
+          <t>-44,92; 97,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 181,48</t>
+          <t>-15,46; 186,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>100,95; 401,97</t>
+          <t>90,0; 406,72</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 171,12</t>
+          <t>-8,75; 164,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>32,01; 244,99</t>
+          <t>27,85; 245,2</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>42,36; 198,88</t>
+          <t>42,35; 203,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 91,65</t>
+          <t>-10,89; 100,95</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>35,64; 177,34</t>
+          <t>32,76; 184,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,7</t>
+          <t>-1,07; 5,36</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -0,08</t>
+          <t>-4,31; -0,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 1,54</t>
+          <t>-3,46; 1,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,8</t>
+          <t>3,16; 8,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,88</t>
+          <t>-1,97; 1,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,55</t>
+          <t>1,62; 5,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,09</t>
+          <t>2,85; 6,97</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,17</t>
+          <t>-2,07; 1,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,92</t>
+          <t>0,46; 3,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,59; 429,42</t>
+          <t>-37,5; 418,99</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 75,3</t>
+          <t>-100,0; 47,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-83,21; 158,78</t>
+          <t>-83,53; 119,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>44,78; 161,1</t>
+          <t>48,38; 174,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 39,92</t>
+          <t>-30,98; 42,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,2; 119,42</t>
+          <t>25,5; 119,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>49,4; 173,55</t>
+          <t>48,81; 167,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 29,09</t>
+          <t>-37,16; 31,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>8,14; 95,02</t>
+          <t>7,71; 96,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,61</t>
+          <t>0,52; 2,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,22</t>
+          <t>-0,69; 1,14</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,83</t>
+          <t>0,48; 2,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,83</t>
+          <t>3,23; 5,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,77</t>
+          <t>-0,36; 1,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,15</t>
+          <t>0,47; 3,07</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,69</t>
+          <t>2,18; 3,77</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,24</t>
+          <t>-0,22; 1,22</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,73</t>
+          <t>0,89; 2,7</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>12,46; 96,34</t>
+          <t>13,48; 90,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 46,66</t>
+          <t>-18,75; 40,49</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>14,15; 105,39</t>
+          <t>13,7; 101,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>58,97; 133,07</t>
+          <t>59,54; 131,98</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 40,44</t>
+          <t>-7,06; 44,01</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,03; 74,01</t>
+          <t>9,11; 71,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>48,01; 99,06</t>
+          <t>48,86; 101,53</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 33,96</t>
+          <t>-4,87; 33,49</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>20,11; 73,22</t>
+          <t>20,17; 73,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
